--- a/server/pickup-shisetsu.xlsx
+++ b/server/pickup-shisetsu.xlsx
@@ -11,39 +11,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>施設コード</t>
-  </si>
-  <si>
-    <t>開始日</t>
-  </si>
-  <si>
-    <t>終了日</t>
-  </si>
-  <si>
-    <t>20210620</t>
-  </si>
-  <si>
-    <t>20210710</t>
-  </si>
-  <si>
-    <t>20210520</t>
-  </si>
-  <si>
-    <t>20210610</t>
-  </si>
-  <si>
-    <t>20210720</t>
-  </si>
-  <si>
-    <t>20210810</t>
-  </si>
-  <si>
-    <t>20210820</t>
-  </si>
-  <si>
-    <t>20210910</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>hotelId</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>2021-06-20</t>
+  </si>
+  <si>
+    <t>2021-07-10</t>
+  </si>
+  <si>
+    <t>2222222</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>3333333</t>
+  </si>
+  <si>
+    <t>2021-07-20</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>4444444</t>
+  </si>
+  <si>
+    <t>2021-08-20</t>
+  </si>
+  <si>
+    <t>2021-09-10</t>
   </si>
 </sst>
 </file>
@@ -117,20 +129,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -364,47 +370,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>1111111.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
-        <v>2222222.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>3333333.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
-        <v>4444444.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
